--- a/html/TimeTableMaker/Backup/202602_Timeline.xlsx
+++ b/html/TimeTableMaker/Backup/202602_Timeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="116">
   <si>
     <t>강의실</t>
   </si>
@@ -1184,6 +1184,15 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1193,7 +1202,7 @@
     <xf numFmtId="20" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,16 +1211,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1537,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1560,26 +1560,26 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="24"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="24"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="19">
         <v>0.375</v>
       </c>
       <c r="B4" s="22"/>
@@ -1690,144 +1690,144 @@
       <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -1890,7 +1890,7 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="19">
         <v>0.45833333333333331</v>
       </c>
       <c r="B15" s="22"/>
@@ -1916,172 +1916,170 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="6"/>
       <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="6"/>
       <c r="E18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="6"/>
       <c r="E19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="6"/>
       <c r="E20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="6"/>
       <c r="E21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="6"/>
       <c r="E22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -2110,7 +2108,7 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="A24" s="19">
         <v>0.5</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2136,130 +2134,130 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="6"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="20"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="20"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="6"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="20"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="20"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="6"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="20"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="20"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="6"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="20"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="20"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="6"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="20"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="20"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="6"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="20"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="20"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="6"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="21"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="21"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
@@ -2320,10 +2318,10 @@
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="22"/>
       <c r="D35" s="6"/>
       <c r="E35" s="9" t="s">
@@ -2346,172 +2344,172 @@
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="6"/>
       <c r="E36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J36" s="20"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="6"/>
       <c r="E37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="20"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="6"/>
       <c r="E38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="20"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J38" s="20"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="6"/>
       <c r="E39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="20"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="20"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
     </row>
     <row r="40" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="6"/>
       <c r="E40" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="20"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="20"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
     </row>
     <row r="41" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="6"/>
       <c r="E41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="20"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J41" s="20"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
     </row>
     <row r="42" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="6"/>
       <c r="E42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="21"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="21"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="21"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
     </row>
     <row r="43" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -2582,7 +2580,7 @@
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
+      <c r="A46" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -2616,7 +2614,7 @@
       <c r="N46" s="22"/>
     </row>
     <row r="47" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="10" t="s">
         <v>37</v>
       </c>
@@ -2629,26 +2627,26 @@
       <c r="E47" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="20"/>
+      <c r="F47" s="23"/>
       <c r="G47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="20"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="10" t="s">
         <v>37</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
     </row>
     <row r="48" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="10" t="s">
         <v>29</v>
       </c>
@@ -2661,26 +2659,26 @@
       <c r="E48" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="20"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J48" s="20"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="10" t="s">
         <v>29</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
     </row>
     <row r="49" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="10" t="s">
         <v>56</v>
       </c>
@@ -2693,26 +2691,26 @@
       <c r="E49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="20"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="20"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="10" t="s">
         <v>50</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="10" t="s">
         <v>39</v>
       </c>
@@ -2725,26 +2723,26 @@
       <c r="E50" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="20"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H50" s="20"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="20"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="10" t="s">
         <v>39</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
     </row>
     <row r="51" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="11" t="s">
         <v>75</v>
       </c>
@@ -2757,26 +2755,26 @@
       <c r="E51" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="20"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="20"/>
+      <c r="J51" s="23"/>
       <c r="K51" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L51" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
     </row>
     <row r="52" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="10" t="s">
         <v>76</v>
       </c>
@@ -2789,26 +2787,26 @@
       <c r="E52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="20"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="20"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J52" s="20"/>
+      <c r="J52" s="23"/>
       <c r="K52" s="10" t="s">
         <v>86</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
     </row>
     <row r="53" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="10" t="s">
         <v>33</v>
       </c>
@@ -2821,23 +2819,23 @@
       <c r="E53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="21"/>
+      <c r="F53" s="24"/>
       <c r="G53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="21"/>
+      <c r="J53" s="24"/>
       <c r="K53" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
     </row>
     <row r="54" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -2926,7 +2924,7 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
+      <c r="A57" s="19">
         <v>0.75</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -2950,7 +2948,7 @@
         <v>87</v>
       </c>
       <c r="J57" s="22"/>
-      <c r="K57" s="19"/>
+      <c r="K57" s="25"/>
       <c r="L57" s="13" t="s">
         <v>92</v>
       </c>
@@ -2962,7 +2960,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="10" t="s">
         <v>37</v>
       </c>
@@ -2975,16 +2973,16 @@
       <c r="E58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="20"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="20"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
       <c r="L58" s="6" t="s">
         <v>93</v>
       </c>
@@ -2996,7 +2994,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="10" t="s">
         <v>29</v>
       </c>
@@ -3009,28 +3007,24 @@
       <c r="E59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="20"/>
+      <c r="F59" s="23"/>
       <c r="G59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="20"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M59" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="10" t="s">
         <v>56</v>
       </c>
@@ -3043,16 +3037,16 @@
       <c r="E60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="20"/>
+      <c r="F60" s="23"/>
       <c r="G60" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="20"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
       <c r="L60" s="6" t="s">
         <v>38</v>
       </c>
@@ -3064,7 +3058,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="10" t="s">
         <v>39</v>
       </c>
@@ -3077,16 +3071,16 @@
       <c r="E61" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="20"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H61" s="20"/>
+      <c r="H61" s="23"/>
       <c r="I61" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
       <c r="L61" s="7" t="s">
         <v>65</v>
       </c>
@@ -3098,7 +3092,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="11" t="s">
         <v>66</v>
       </c>
@@ -3111,16 +3105,16 @@
       <c r="E62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F62" s="20"/>
+      <c r="F62" s="23"/>
       <c r="G62" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H62" s="20"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
       <c r="L62" s="6" t="s">
         <v>83</v>
       </c>
@@ -3132,7 +3126,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="10" t="s">
         <v>76</v>
       </c>
@@ -3145,16 +3139,16 @@
       <c r="E63" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="20"/>
+      <c r="F63" s="23"/>
       <c r="G63" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="20"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
       <c r="L63" s="6" t="s">
         <v>71</v>
       </c>
@@ -3166,7 +3160,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="10" t="s">
         <v>33</v>
       </c>
@@ -3179,16 +3173,16 @@
       <c r="E64" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="21"/>
+      <c r="F64" s="24"/>
       <c r="G64" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H64" s="21"/>
+      <c r="H64" s="24"/>
       <c r="I64" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
       <c r="L64" s="6" t="s">
         <v>94</v>
       </c>
@@ -3236,7 +3230,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
+      <c r="A66" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="B66" s="10" t="s">
@@ -3270,81 +3264,81 @@
       </c>
     </row>
     <row r="67" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="20"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="20"/>
+      <c r="H67" s="23"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
       <c r="L67" s="6"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
     <row r="68" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
-      <c r="F68" s="20"/>
+      <c r="F68" s="23"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="20"/>
+      <c r="H68" s="23"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
       <c r="L68" s="6"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
     <row r="69" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="20"/>
+      <c r="F69" s="23"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="20"/>
+      <c r="H69" s="23"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
       <c r="L69" s="6"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
     <row r="70" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="20"/>
+      <c r="F70" s="23"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="20"/>
+      <c r="H70" s="23"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
       <c r="L70" s="6"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
     <row r="71" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="21"/>
+      <c r="F71" s="24"/>
       <c r="G71" s="10"/>
-      <c r="H71" s="21"/>
+      <c r="H71" s="24"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
       <c r="L71" s="6"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
@@ -3368,13 +3362,13 @@
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
+      <c r="A73" s="19">
         <v>0.83333333333333337</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="19"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="9" t="s">
         <v>102</v>
       </c>
@@ -3402,15 +3396,15 @@
       <c r="L73" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
     </row>
     <row r="74" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="20"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="10" t="s">
         <v>37</v>
       </c>
@@ -3438,15 +3432,15 @@
       <c r="L74" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
     </row>
     <row r="75" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="20"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="10" t="s">
         <v>29</v>
       </c>
@@ -3456,15 +3450,11 @@
       <c r="F75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="G75" s="10"/>
       <c r="H75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="I75" s="10"/>
       <c r="J75" s="10" t="s">
         <v>29</v>
       </c>
@@ -3474,15 +3464,15 @@
       <c r="L75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
     </row>
     <row r="76" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="20"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="10" t="s">
         <v>64</v>
       </c>
@@ -3510,15 +3500,15 @@
       <c r="L76" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
     </row>
     <row r="77" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="20"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="10" t="s">
         <v>39</v>
       </c>
@@ -3546,15 +3536,15 @@
       <c r="L77" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
     </row>
     <row r="78" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="20"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="11" t="s">
         <v>103</v>
       </c>
@@ -3582,15 +3572,15 @@
       <c r="L78" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
     </row>
     <row r="79" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="20"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="10" t="s">
         <v>79</v>
       </c>
@@ -3618,15 +3608,15 @@
       <c r="L79" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
     </row>
     <row r="80" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="21"/>
+      <c r="C80" s="24"/>
       <c r="D80" s="10" t="s">
         <v>33</v>
       </c>
@@ -3654,8 +3644,8 @@
       <c r="L80" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
@@ -3771,35 +3761,23 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="F4:F11"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="H15:H22"/>
-    <mergeCell ref="J15:J22"/>
-    <mergeCell ref="L15:L22"/>
-    <mergeCell ref="M15:M22"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="J4:J11"/>
-    <mergeCell ref="K4:K11"/>
-    <mergeCell ref="L4:L11"/>
-    <mergeCell ref="M4:M11"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="C24:C31"/>
-    <mergeCell ref="F24:F31"/>
-    <mergeCell ref="H24:H31"/>
-    <mergeCell ref="J24:J31"/>
+    <mergeCell ref="K57:K64"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="M73:M80"/>
+    <mergeCell ref="N73:N80"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="H66:H71"/>
+    <mergeCell ref="J66:J71"/>
+    <mergeCell ref="K66:K71"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="H35:H42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="F57:F64"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="J57:J64"/>
     <mergeCell ref="L24:L31"/>
     <mergeCell ref="M24:M31"/>
     <mergeCell ref="N24:N31"/>
@@ -3816,23 +3794,35 @@
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B42"/>
     <mergeCell ref="C35:C42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="H35:H42"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="F57:F64"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="J57:J64"/>
-    <mergeCell ref="K57:K64"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="M73:M80"/>
-    <mergeCell ref="N73:N80"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="F66:F71"/>
-    <mergeCell ref="H66:H71"/>
-    <mergeCell ref="J66:J71"/>
-    <mergeCell ref="K66:K71"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="C24:C31"/>
+    <mergeCell ref="F24:F31"/>
+    <mergeCell ref="H24:H31"/>
+    <mergeCell ref="J24:J31"/>
+    <mergeCell ref="J15:J22"/>
+    <mergeCell ref="L15:L22"/>
+    <mergeCell ref="M15:M22"/>
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="L4:L11"/>
+    <mergeCell ref="M4:M11"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="F4:F11"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/html/TimeTableMaker/Backup/202602_Timeline.xlsx
+++ b/html/TimeTableMaker/Backup/202602_Timeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="117">
   <si>
     <t>강의실</t>
   </si>
@@ -367,6 +367,10 @@
   </si>
   <si>
     <t>웹툰콘티</t>
+  </si>
+  <si>
+    <t>김지원14</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1184,6 +1188,27 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1191,27 +1216,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1537,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1560,26 +1564,26 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="17"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1691,143 +1695,143 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -1917,169 +1921,169 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="6"/>
       <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="6"/>
       <c r="E17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="6"/>
       <c r="E18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="6"/>
       <c r="E19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="6"/>
       <c r="E20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="6"/>
       <c r="E21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="23"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="6"/>
       <c r="E22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="24"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="24"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -2138,126 +2142,126 @@
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="6"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="23"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="23"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="6"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="23"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="6"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="23"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="23"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="23"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="6"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="23"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="23"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="23"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="6"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="23"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="23"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="23"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="6"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="23"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="23"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="23"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="6"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
@@ -2321,7 +2325,7 @@
       <c r="A35" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="22"/>
       <c r="D35" s="6"/>
       <c r="E35" s="9" t="s">
@@ -2345,171 +2349,171 @@
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="6"/>
       <c r="E36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="23"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="23"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J36" s="23"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="6"/>
       <c r="E37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="23"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="23"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="23"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="6"/>
       <c r="E38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="23"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="23"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="6"/>
       <c r="E39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="23"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="23"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="6"/>
       <c r="E40" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="23"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="23"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="6"/>
       <c r="E41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="23"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="23"/>
+        <v>116</v>
+      </c>
+      <c r="H41" s="17"/>
       <c r="I41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J41" s="23"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="6"/>
       <c r="E42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="24"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="24"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
     </row>
     <row r="43" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -2627,23 +2631,23 @@
       <c r="E47" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="23"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H47" s="23"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="23"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="10" t="s">
         <v>37</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
     </row>
     <row r="48" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
@@ -2659,23 +2663,23 @@
       <c r="E48" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="23"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J48" s="23"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="10" t="s">
         <v>29</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
     </row>
     <row r="49" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
@@ -2691,23 +2695,23 @@
       <c r="E49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="23"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="10" t="s">
         <v>50</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
     </row>
     <row r="50" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
@@ -2723,23 +2727,23 @@
       <c r="E50" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H50" s="23"/>
+      <c r="H50" s="17"/>
       <c r="I50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="23"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="10" t="s">
         <v>39</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
     </row>
     <row r="51" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
@@ -2755,23 +2759,23 @@
       <c r="E51" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="23"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="23"/>
+      <c r="H51" s="17"/>
       <c r="I51" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="23"/>
+      <c r="J51" s="17"/>
       <c r="K51" s="11" t="s">
         <v>40</v>
       </c>
       <c r="L51" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
     </row>
     <row r="52" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
@@ -2787,23 +2791,23 @@
       <c r="E52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="23"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="23"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J52" s="23"/>
+      <c r="J52" s="17"/>
       <c r="K52" s="10" t="s">
         <v>86</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
     </row>
     <row r="53" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
@@ -2819,23 +2823,23 @@
       <c r="E53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="18"/>
       <c r="G53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="24"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="24"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="10" t="s">
         <v>33</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
     </row>
     <row r="54" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -2948,7 +2952,7 @@
         <v>87</v>
       </c>
       <c r="J57" s="22"/>
-      <c r="K57" s="25"/>
+      <c r="K57" s="16"/>
       <c r="L57" s="13" t="s">
         <v>92</v>
       </c>
@@ -2973,16 +2977,16 @@
       <c r="E58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="23"/>
+      <c r="H58" s="17"/>
       <c r="I58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
       <c r="L58" s="6" t="s">
         <v>93</v>
       </c>
@@ -3007,16 +3011,16 @@
       <c r="E59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="23"/>
+      <c r="H59" s="17"/>
       <c r="I59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
       <c r="L59" s="6"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10" t="s">
@@ -3037,16 +3041,16 @@
       <c r="E60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="17"/>
       <c r="G60" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="23"/>
+      <c r="H60" s="17"/>
       <c r="I60" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
       <c r="L60" s="6" t="s">
         <v>38</v>
       </c>
@@ -3071,16 +3075,16 @@
       <c r="E61" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H61" s="23"/>
+      <c r="H61" s="17"/>
       <c r="I61" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
       <c r="L61" s="7" t="s">
         <v>65</v>
       </c>
@@ -3105,16 +3109,16 @@
       <c r="E62" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="17"/>
       <c r="G62" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H62" s="23"/>
+      <c r="H62" s="17"/>
       <c r="I62" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
       <c r="L62" s="6" t="s">
         <v>83</v>
       </c>
@@ -3139,16 +3143,16 @@
       <c r="E63" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="23"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="23"/>
+      <c r="H63" s="17"/>
       <c r="I63" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
       <c r="L63" s="6" t="s">
         <v>71</v>
       </c>
@@ -3173,16 +3177,16 @@
       <c r="E64" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="24"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H64" s="24"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
       <c r="L64" s="6" t="s">
         <v>94</v>
       </c>
@@ -3269,12 +3273,12 @@
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="23"/>
+      <c r="F67" s="17"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="23"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
       <c r="L67" s="6"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
@@ -3285,12 +3289,12 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
-      <c r="F68" s="23"/>
+      <c r="F68" s="17"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="23"/>
+      <c r="H68" s="17"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
       <c r="L68" s="6"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
@@ -3301,12 +3305,12 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="23"/>
+      <c r="F69" s="17"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="23"/>
+      <c r="H69" s="17"/>
       <c r="I69" s="10"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
       <c r="L69" s="6"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
@@ -3317,12 +3321,12 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="23"/>
+      <c r="F70" s="17"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="23"/>
+      <c r="H70" s="17"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
       <c r="L70" s="6"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
@@ -3333,12 +3337,12 @@
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="24"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="10"/>
-      <c r="H71" s="24"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
       <c r="L71" s="6"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
@@ -3368,7 +3372,7 @@
       <c r="B73" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="25"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="9" t="s">
         <v>102</v>
       </c>
@@ -3396,15 +3400,15 @@
       <c r="L73" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
     </row>
     <row r="74" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="23"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="10" t="s">
         <v>37</v>
       </c>
@@ -3432,15 +3436,15 @@
       <c r="L74" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
     </row>
     <row r="75" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="23"/>
+      <c r="C75" s="17"/>
       <c r="D75" s="10" t="s">
         <v>29</v>
       </c>
@@ -3464,15 +3468,15 @@
       <c r="L75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
     </row>
     <row r="76" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="23"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="10" t="s">
         <v>64</v>
       </c>
@@ -3500,15 +3504,15 @@
       <c r="L76" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
     </row>
     <row r="77" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="23"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="10" t="s">
         <v>39</v>
       </c>
@@ -3536,15 +3540,15 @@
       <c r="L77" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
     </row>
     <row r="78" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="23"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="11" t="s">
         <v>103</v>
       </c>
@@ -3572,15 +3576,15 @@
       <c r="L78" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
     </row>
     <row r="79" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="23"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="10" t="s">
         <v>79</v>
       </c>
@@ -3608,15 +3612,15 @@
       <c r="L79" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
     </row>
     <row r="80" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="24"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="10" t="s">
         <v>33</v>
       </c>
@@ -3644,8 +3648,8 @@
       <c r="L80" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
@@ -3761,23 +3765,35 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="K57:K64"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="M73:M80"/>
-    <mergeCell ref="N73:N80"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="F66:F71"/>
-    <mergeCell ref="H66:H71"/>
-    <mergeCell ref="J66:J71"/>
-    <mergeCell ref="K66:K71"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="H35:H42"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="F57:F64"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="J57:J64"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="F4:F11"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="J15:J22"/>
+    <mergeCell ref="L15:L22"/>
+    <mergeCell ref="M15:M22"/>
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="L4:L11"/>
+    <mergeCell ref="M4:M11"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="C24:C31"/>
+    <mergeCell ref="F24:F31"/>
+    <mergeCell ref="H24:H31"/>
+    <mergeCell ref="J24:J31"/>
     <mergeCell ref="L24:L31"/>
     <mergeCell ref="M24:M31"/>
     <mergeCell ref="N24:N31"/>
@@ -3794,35 +3810,23 @@
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B42"/>
     <mergeCell ref="C35:C42"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="C24:C31"/>
-    <mergeCell ref="F24:F31"/>
-    <mergeCell ref="H24:H31"/>
-    <mergeCell ref="J24:J31"/>
-    <mergeCell ref="J15:J22"/>
-    <mergeCell ref="L15:L22"/>
-    <mergeCell ref="M15:M22"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="J4:J11"/>
-    <mergeCell ref="K4:K11"/>
-    <mergeCell ref="L4:L11"/>
-    <mergeCell ref="M4:M11"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="H15:H22"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="F4:F11"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="H35:H42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="F57:F64"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="J57:J64"/>
+    <mergeCell ref="K57:K64"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="M73:M80"/>
+    <mergeCell ref="N73:N80"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="H66:H71"/>
+    <mergeCell ref="J66:J71"/>
+    <mergeCell ref="K66:K71"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
